--- a/metadata_manager/resources/templates/version_1_2_3/element_descriptions.xlsx
+++ b/metadata_manager/resources/templates/version_1_2_3/element_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\breast_group\metadata-manager\metadata_manager\resources\templates\version_1_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5B7BFD-31E9-40E5-9972-9C60808E2197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0162F7A-ACDF-4AD3-A340-408749ED6EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="2064" windowWidth="19728" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_description" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="138">
   <si>
     <t>subject_id</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>Element</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,6 +1741,9 @@
       <c r="A2" t="s">
         <v>130</v>
       </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
       <c r="C2" t="s">
         <v>131</v>
       </c>
@@ -1746,6 +1752,9 @@
       <c r="A3" t="s">
         <v>132</v>
       </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -1753,6 +1762,9 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>135</v>
